--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -672,40 +672,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J2" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K2" t="n">
         <v>2.18</v>
       </c>
       <c r="L2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>2.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.38</v>
@@ -714,52 +714,52 @@
         <v>2.6</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="n">
         <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
         <v>90</v>
@@ -768,7 +768,7 @@
         <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,16 @@
           <t>Odd_Under05_FT</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -672,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M2" t="n">
         <v>1.26</v>
@@ -699,13 +709,13 @@
         <v>1.78</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>1.38</v>
@@ -717,10 +727,10 @@
         <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X2" t="n">
         <v>7.7</v>
@@ -735,13 +745,13 @@
         <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE2" t="n">
         <v>16</v>
@@ -756,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
         <v>50</v>
@@ -772,6 +782,8 @@
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -805,40 +817,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="N3" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="O3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P3" t="n">
         <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
         <v>1.42</v>
@@ -847,37 +859,37 @@
         <v>2.47</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>32</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF3" t="n">
         <v>65</v>
@@ -886,25 +898,27 @@
         <v>500</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>32</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1042,6 +1056,8 @@
       <c r="AO4" t="n">
         <v>10</v>
       </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1075,40 +1091,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1132,10 +1148,10 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
         <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1147,7 +1163,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1156,10 +1172,10 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1171,13 +1187,19 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>1.08</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -682,37 +682,37 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -727,22 +727,22 @@
         <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>6.9</v>
       </c>
       <c r="X2" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE2" t="n">
         <v>16</v>
@@ -763,22 +763,22 @@
         <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -964,10 +964,10 @@
         <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -994,10 +994,10 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
@@ -1015,10 +1015,10 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1030,7 +1030,7 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1048,13 +1048,13 @@
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>1.06</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
@@ -1106,7 +1106,7 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1115,16 +1115,16 @@
         <v>2.63</v>
       </c>
       <c r="O5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1145,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
@@ -1184,7 +1184,7 @@
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1193,13 +1193,13 @@
         <v>1.08</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -682,40 +682,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>4.55</v>
+        <v>3.65</v>
       </c>
       <c r="M2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
         <v>1.38</v>
@@ -724,61 +724,61 @@
         <v>2.6</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>7.9</v>
+        <v>9.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AL2" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -1115,10 +1115,10 @@
         <v>2.63</v>
       </c>
       <c r="O5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
         <v>4.5</v>
@@ -1193,13 +1193,13 @@
         <v>1.08</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4hZlCYko</t>
+          <t>rJpGZjqp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -663,98 +663,98 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atl. Morelia</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="L2" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="U2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8</v>
       </c>
-      <c r="X2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF2" t="n">
         <v>60</v>
@@ -763,22 +763,22 @@
         <v>450</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AM2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -788,7 +788,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4zIq3eDU</t>
+          <t>4hZlCYko</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -808,112 +808,112 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tlaxcala</t>
+          <t>Atl. Morelia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.47</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="M3" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="N3" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T3" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -923,7 +923,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IasWL5tH</t>
+          <t>4zIq3eDU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -933,272 +933,407 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.47</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>IasWL5tH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>8WCuU1bE</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>SPAIN - LALIGA2</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Burgos CF</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Almeria</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>2.35</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>3.75</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>1.95</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>3.2</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>1.44</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>2.63</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>2.4</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>4.5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R6" t="n">
         <v>1.18</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>1.53</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T6" t="n">
         <v>2.38</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U6" t="n">
         <v>2</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V6" t="n">
         <v>1.73</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W6" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X6" t="n">
         <v>13</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y6" t="n">
         <v>12</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z6" t="n">
         <v>34</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA6" t="n">
         <v>29</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB6" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC6" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE6" t="n">
         <v>19</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF6" t="n">
         <v>67</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG6" t="n">
         <v>301</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI6" t="n">
         <v>10</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ6" t="n">
         <v>10</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK6" t="n">
         <v>23</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL6" t="n">
         <v>21</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM6" t="n">
         <v>41</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN6" t="n">
         <v>1.08</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO6" t="n">
         <v>8</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP6" t="n">
         <v>1.83</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ6" t="n">
         <v>2.03</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,7 +788,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4hZlCYko</t>
+          <t>WnsTHgzI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -798,122 +798,122 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Atl. Morelia</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>4.85</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L3" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
         <v>1.38</v>
       </c>
       <c r="T3" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="X3" t="n">
-        <v>9.75</v>
+        <v>7.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
         <v>60</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>35</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -923,7 +923,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4zIq3eDU</t>
+          <t>SEzxGX4U</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -933,122 +933,118 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tlaxcala</t>
+          <t>Longford</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.47</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>10.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="N4" t="n">
-        <v>2.87</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>2.27</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.47</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>10.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.75</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
@@ -1058,7 +1054,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IasWL5tH</t>
+          <t>rRAozyjn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1068,274 +1064,1648 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI5" t="n">
         <v>13</v>
       </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2TQnYEKb</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IRELAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UC Dublin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Treaty United</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AgUfWhkB</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IRELAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Wexford</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4hZlCYko</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Leones Negros</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Atl. Morelia</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4zIq3eDU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Alebrijes Oaxaca</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IasWL5tH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MFjMrqdn</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Partick Thistle</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Raith</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>8WCuU1bE</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>SPAIN - LALIGA2</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Burgos CF</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Almeria</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>3.25</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>2.35</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J12" t="n">
         <v>3.75</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K12" t="n">
         <v>1.95</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>3.2</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M12" t="n">
         <v>1.44</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N12" t="n">
         <v>2.63</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O12" t="n">
         <v>2.4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P12" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q12" t="n">
         <v>4.5</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R12" t="n">
         <v>1.18</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S12" t="n">
         <v>1.53</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T12" t="n">
         <v>2.38</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U12" t="n">
         <v>2</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V12" t="n">
         <v>1.73</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W12" t="n">
         <v>7.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X12" t="n">
         <v>13</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y12" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z12" t="n">
         <v>34</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA12" t="n">
         <v>29</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB12" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC12" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE12" t="n">
         <v>19</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF12" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG12" t="n">
         <v>301</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI12" t="n">
         <v>10</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ12" t="n">
         <v>10</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK12" t="n">
         <v>23</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM12" t="n">
         <v>41</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN12" t="n">
         <v>1.08</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO12" t="n">
         <v>8</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP12" t="n">
         <v>1.83</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ12" t="n">
         <v>2.03</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>rZAnKO7k</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>jaEfI2x2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>zZICXJPF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fyZDVcfS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -832,7 +832,7 @@
         <v>2.22</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M3" t="n">
         <v>1.31</v>
@@ -844,7 +844,7 @@
         <v>1.9</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
         <v>3.1</v>
@@ -901,7 +901,7 @@
         <v>12.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>16</v>
@@ -913,7 +913,7 @@
         <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -1218,103 +1218,103 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="N6" t="n">
         <v>2.82</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
         <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>15.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
         <v>700</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1488,40 +1488,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L8" t="n">
         <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
         <v>1.38</v>
@@ -1530,61 +1530,61 @@
         <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>10.75</v>
       </c>
-      <c r="AI8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK8" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
@@ -1794,10 +1794,10 @@
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -1900,7 +1900,7 @@
         <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3.3</v>
@@ -1933,10 +1933,10 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -1948,7 +1948,7 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2040,22 +2040,22 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.44</v>
@@ -2082,10 +2082,10 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2106,7 +2106,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2133,22 +2133,22 @@
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -823,7 +823,7 @@
         <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
         <v>2.15</v>
@@ -832,7 +832,7 @@
         <v>2.22</v>
       </c>
       <c r="L3" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="M3" t="n">
         <v>1.31</v>
@@ -868,7 +868,7 @@
         <v>6.2</v>
       </c>
       <c r="X3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y3" t="n">
         <v>8.25</v>
@@ -898,22 +898,22 @@
         <v>800</v>
       </c>
       <c r="AH3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
         <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
         <v>10.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.2</v>
@@ -976,13 +976,13 @@
         <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
         <v>1.5</v>
@@ -990,49 +990,49 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
         <v>7.3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>10.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
         <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
         <v>35</v>
@@ -1044,7 +1044,7 @@
         <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
@@ -1218,28 +1218,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
         <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
       </c>
       <c r="N6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.98</v>
@@ -1257,7 +1257,7 @@
         <v>1.38</v>
       </c>
       <c r="T6" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
@@ -1266,19 +1266,19 @@
         <v>1.82</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
         <v>32</v>
@@ -1287,7 +1287,7 @@
         <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE6" t="n">
         <v>15.5</v>
@@ -1299,22 +1299,22 @@
         <v>700</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -1794,10 +1794,10 @@
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -1824,7 +1824,7 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -1836,7 +1836,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
         <v>10</v>
@@ -1860,7 +1860,7 @@
         <v>1.06</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1900,7 +1900,7 @@
         <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
         <v>3.3</v>
@@ -1921,10 +1921,10 @@
         <v>2.63</v>
       </c>
       <c r="O11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
         <v>4.5</v>
@@ -1933,10 +1933,10 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -1948,7 +1948,7 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2002,10 +2002,10 @@
         <v>6.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="12">
@@ -2040,22 +2040,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1.44</v>
@@ -2088,19 +2088,19 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
         <v>13</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
       <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
         <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>29</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2109,10 +2109,10 @@
         <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>67</v>
@@ -2121,19 +2121,19 @@
         <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2145,10 +2145,10 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="13">
@@ -2606,103 +2606,103 @@
         <v>2.95</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L16" t="n">
         <v>3.85</v>
       </c>
       <c r="M16" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="O16" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T16" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD16" t="n">
         <v>5.8</v>
       </c>
-      <c r="AD16" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="n">
         <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -682,103 +682,103 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.85</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.72</v>
-      </c>
       <c r="K2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="N2" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="O2" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -820,13 +820,13 @@
         <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K3" t="n">
         <v>2.22</v>
@@ -838,19 +838,19 @@
         <v>1.31</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="O3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
         <v>1.38</v>
@@ -862,10 +862,10 @@
         <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X3" t="n">
         <v>7.2</v>
@@ -883,7 +883,7 @@
         <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD3" t="n">
         <v>7.1</v>
@@ -892,13 +892,13 @@
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -913,7 +913,7 @@
         <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -1083,106 +1083,110 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.47</v>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.18</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="T5" t="n">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="U5" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AG5" t="n">
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6.2</v>
+      </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
     </row>
@@ -1218,34 +1222,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
         <v>3.2</v>
@@ -1263,7 +1267,7 @@
         <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1275,7 +1279,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>20</v>
@@ -1287,28 +1291,28 @@
         <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH6" t="n">
         <v>8.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>24</v>
@@ -1353,22 +1357,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H7" t="n">
         <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M7" t="n">
         <v>1.26</v>
@@ -1383,10 +1387,10 @@
         <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>1.38</v>
@@ -1398,22 +1402,22 @@
         <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
         <v>8.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
@@ -1434,19 +1438,19 @@
         <v>500</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM7" t="n">
         <v>40</v>
@@ -1897,94 +1901,94 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="N11" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="S11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.57</v>
       </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
         <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
@@ -1993,13 +1997,13 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
         <v>1.88</v>
@@ -2040,46 +2044,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="N12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O12" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U12" t="n">
         <v>2.1</v>
@@ -2088,16 +2092,16 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
         <v>34</v>
@@ -2106,7 +2110,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2124,31 +2128,31 @@
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="13">
@@ -2183,46 +2187,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="M13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="U13" t="n">
         <v>1.65</v>
@@ -2231,31 +2235,31 @@
         <v>2.12</v>
       </c>
       <c r="W13" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="n">
         <v>35</v>
       </c>
-      <c r="AB13" t="n">
-        <v>37</v>
-      </c>
       <c r="AC13" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>55</v>
@@ -2264,28 +2268,28 @@
         <v>350</v>
       </c>
       <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>8.25</v>
       </c>
-      <c r="AI13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8</v>
-      </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM13" t="n">
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2473,34 +2477,34 @@
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M15" t="n">
         <v>1.27</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.8</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q15" t="n">
         <v>2.92</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
         <v>1.37</v>
       </c>
       <c r="T15" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>
@@ -2536,7 +2540,7 @@
         <v>13.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG15" t="n">
         <v>400</v>
@@ -2600,109 +2604,109 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="L16" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="N16" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="O16" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="T16" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="X16" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z16" t="n">
         <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
         <v>5.8</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK16" t="n">
         <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="J3" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.31</v>
@@ -841,16 +841,16 @@
         <v>2.87</v>
       </c>
       <c r="O3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P3" t="n">
         <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
         <v>1.38</v>
@@ -859,61 +859,61 @@
         <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="X3" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="Y3" t="n">
         <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>9.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH3" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM3" t="n">
         <v>50</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>55</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -1083,103 +1083,103 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H5" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I5" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="N5" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="O5" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="T5" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
         <v>10.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" t="n">
         <v>5.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="n">
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AI5" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>37</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="n">
         <v>1.1</v>
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
         <v>2.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.32</v>
@@ -1255,13 +1255,13 @@
         <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>1.38</v>
       </c>
       <c r="T6" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
@@ -1273,16 +1273,16 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
         <v>32</v>
@@ -1291,7 +1291,7 @@
         <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1303,10 +1303,10 @@
         <v>600</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
@@ -1315,10 +1315,10 @@
         <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1357,103 +1357,103 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="K7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
         <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
         <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
         <v>500</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AL7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
@@ -1627,103 +1627,103 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M9" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="N9" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T9" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL9" t="n">
         <v>21</v>
       </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
       <c r="AM9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1904,22 +1904,22 @@
         <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="N11" t="n">
         <v>2.2</v>
@@ -1934,22 +1934,22 @@
         <v>5.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
         <v>9.5</v>
@@ -1961,13 +1961,13 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -1991,16 +1991,16 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AO11" t="n">
         <v>5</v>
@@ -2047,7 +2047,7 @@
         <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>2.3</v>
@@ -2056,28 +2056,28 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="N12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O12" t="n">
         <v>2.5</v>
       </c>
-      <c r="O12" t="n">
-        <v>2.6</v>
-      </c>
       <c r="P12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
         <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
         <v>1.57</v>
@@ -2125,7 +2125,7 @@
         <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
         <v>10</v>
@@ -2137,22 +2137,22 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>1.98</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.88</v>
       </c>
     </row>
     <row r="13">
@@ -2187,109 +2187,109 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>2.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.18</v>
       </c>
-      <c r="L13" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.12</v>
-      </c>
       <c r="W13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>12</v>
       </c>
-      <c r="X13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
       <c r="AF13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="n">
         <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
         <v>1.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2326,109 +2326,109 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.3</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K14" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L14" t="n">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="M14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N14" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
         <v>25</v>
       </c>
-      <c r="AB14" t="n">
-        <v>28</v>
-      </c>
       <c r="AC14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE14" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
         <v>250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
         <v>1.04</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2465,22 +2465,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="M15" t="n">
         <v>1.27</v>
@@ -2501,10 +2501,10 @@
         <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T15" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>
@@ -2513,22 +2513,22 @@
         <v>2.05</v>
       </c>
       <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
         <v>9</v>
       </c>
-      <c r="X15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
         <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>28</v>
       </c>
       <c r="AC15" t="n">
         <v>7.8</v>
@@ -2546,22 +2546,22 @@
         <v>400</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AL15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN15" t="n">
         <v>1.05</v>
@@ -2604,109 +2604,109 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M16" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.47</v>
-      </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="X16" t="n">
         <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="n">
         <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM16" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -685,85 +685,85 @@
         <v>2.12</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="J2" t="n">
         <v>2.85</v>
       </c>
       <c r="K2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.83</v>
       </c>
-      <c r="L2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>1.78</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.82</v>
-      </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="X2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD2" t="n">
         <v>5.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>22</v>
@@ -772,13 +772,13 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -823,16 +823,16 @@
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.31</v>
@@ -865,7 +865,7 @@
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
         <v>7.7</v>
@@ -880,7 +880,7 @@
         <v>14.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
         <v>9.25</v>
@@ -889,19 +889,19 @@
         <v>6.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
         <v>90</v>
       </c>
       <c r="AG3" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>14.5</v>
@@ -952,13 +952,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.62</v>
@@ -967,7 +967,7 @@
         <v>2.55</v>
       </c>
       <c r="L4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>1.2</v>
@@ -976,7 +976,7 @@
         <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
         <v>2.2</v>
@@ -990,58 +990,58 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
         <v>10.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
         <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="n">
         <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
@@ -1083,103 +1083,103 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="O5" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA5" t="n">
         <v>27</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>25</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AD5" t="n">
         <v>5.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG5" t="n">
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="n">
         <v>1.1</v>
@@ -1222,10 +1222,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>2.82</v>
@@ -1234,7 +1234,7 @@
         <v>2.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
         <v>3.35</v>
@@ -1255,13 +1255,13 @@
         <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>1.38</v>
       </c>
       <c r="T6" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
@@ -1273,7 +1273,7 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>9.25</v>
@@ -1306,7 +1306,7 @@
         <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.27</v>
@@ -1381,13 +1381,13 @@
         <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P7" t="n">
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.31</v>
@@ -1396,37 +1396,37 @@
         <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X7" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
         <v>14.5</v>
@@ -1438,22 +1438,22 @@
         <v>500</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
@@ -1627,40 +1627,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>2.55</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.1</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.15</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
         <v>1.38</v>
@@ -1669,13 +1669,13 @@
         <v>2.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="W9" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
@@ -1684,46 +1684,46 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK9" t="n">
         <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.3</v>
@@ -1798,28 +1798,28 @@
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>19</v>
@@ -1828,7 +1828,7 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -1837,25 +1837,25 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
@@ -1901,55 +1901,55 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.62</v>
       </c>
-      <c r="N11" t="n">
+      <c r="T11" t="n">
         <v>2.2</v>
       </c>
-      <c r="O11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
         <v>9.5</v>
@@ -1961,13 +1961,13 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -1994,22 +1994,22 @@
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AO11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="12">
@@ -2050,16 +2050,16 @@
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.44</v>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
         <v>34</v>
@@ -2125,10 +2125,10 @@
         <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2187,79 +2187,79 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="H13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.4</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.12</v>
       </c>
-      <c r="L13" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.18</v>
-      </c>
       <c r="W13" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF13" t="n">
         <v>50</v>
@@ -2268,28 +2268,28 @@
         <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2465,22 +2465,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K15" t="n">
         <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.27</v>
@@ -2516,22 +2516,22 @@
         <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD15" t="n">
         <v>6.8</v>
@@ -2555,7 +2555,7 @@
         <v>10.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -2567,7 +2567,7 @@
         <v>1.05</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2610,7 +2610,7 @@
         <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2622,10 +2622,10 @@
         <v>3.9</v>
       </c>
       <c r="M16" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O16" t="n">
         <v>2.5</v>
@@ -2655,7 +2655,7 @@
         <v>6.1</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y16" t="n">
         <v>9.75</v>
@@ -2664,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB16" t="n">
         <v>40</v>
@@ -2676,7 +2676,7 @@
         <v>5.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>110</v>
@@ -2685,7 +2685,7 @@
         <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2700,7 +2700,7 @@
         <v>35</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
         <v>1.12</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -682,55 +682,55 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O2" t="n">
         <v>2.12</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.82</v>
       </c>
-      <c r="L2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W2" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X2" t="n">
         <v>9.5</v>
@@ -742,43 +742,43 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="n">
         <v>45</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>50</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -817,40 +817,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="K3" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="N3" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="O3" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
         <v>1.38</v>
@@ -859,61 +859,61 @@
         <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
         <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH3" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AL3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM3" t="n">
         <v>45</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>50</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -952,19 +952,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
         <v>11.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="L4" t="n">
         <v>9</v>
@@ -979,48 +979,48 @@
         <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
         <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>150</v>
@@ -1035,7 +1035,7 @@
         <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
         <v>450</v>
@@ -1044,7 +1044,7 @@
         <v>175</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
@@ -1083,79 +1083,79 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="N5" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="O5" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W5" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD5" t="n">
         <v>5.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
         <v>120</v>
@@ -1164,28 +1164,28 @@
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
         <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>50</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1222,34 +1222,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="J6" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="M6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="N6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
         <v>3.2</v>
@@ -1270,19 +1270,19 @@
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>32</v>
@@ -1303,22 +1303,22 @@
         <v>600</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1357,79 +1357,79 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>65</v>
@@ -1438,22 +1438,22 @@
         <v>500</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM7" t="n">
         <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>35</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1780,40 +1780,40 @@
         <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="N10" t="n">
         <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
         <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -1828,7 +1828,7 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -1837,10 +1837,10 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
         <v>9.5</v>
@@ -1855,13 +1855,13 @@
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -1919,10 +1919,10 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="N11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
         <v>2.63</v>
@@ -1931,10 +1931,10 @@
         <v>1.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S11" t="n">
         <v>1.62</v>
@@ -2000,16 +2000,16 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AO11" t="n">
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12">
@@ -2044,28 +2044,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="O12" t="n">
         <v>2.5</v>
@@ -2077,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="S12" t="n">
         <v>1.57</v>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
         <v>34</v>
@@ -2125,10 +2125,10 @@
         <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2143,7 +2143,7 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
@@ -2187,19 +2187,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
         <v>3.1</v>
@@ -2208,16 +2208,16 @@
         <v>1.28</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R13" t="n">
         <v>1.35</v>
@@ -2235,31 +2235,31 @@
         <v>2.12</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
         <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>50</v>
@@ -2268,10 +2268,10 @@
         <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.25</v>
@@ -2289,7 +2289,7 @@
         <v>1.06</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2326,91 +2326,91 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="N14" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
@@ -2419,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
         <v>1.04</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>2.77</v>
@@ -697,7 +697,7 @@
         <v>1.85</v>
       </c>
       <c r="L2" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.38</v>
@@ -721,19 +721,19 @@
         <v>1.52</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
         <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="n">
         <v>30</v>
@@ -763,7 +763,7 @@
         <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -772,13 +772,13 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM2" t="n">
         <v>40</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>45</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K3" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L3" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.34</v>
@@ -859,25 +859,25 @@
         <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB3" t="n">
         <v>30</v>
@@ -889,31 +889,31 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
         <v>800</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -955,16 +955,16 @@
         <v>1.21</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L4" t="n">
         <v>9</v>
@@ -979,39 +979,39 @@
         <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
         <v>14.5</v>
@@ -1032,19 +1032,19 @@
         <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL4" t="n">
         <v>175</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
@@ -1083,79 +1083,79 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>1.9</v>
       </c>
       <c r="L5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="O5" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD5" t="n">
         <v>5.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>120</v>
@@ -1179,7 +1179,7 @@
         <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
         <v>1.11</v>
@@ -1225,55 +1225,55 @@
         <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="O6" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.78</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y6" t="n">
         <v>9.75</v>
@@ -1282,43 +1282,43 @@
         <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AI6" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1360,7 +1360,7 @@
         <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
         <v>3.85</v>
@@ -1375,22 +1375,22 @@
         <v>4.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
         <v>1.38</v>
@@ -1399,43 +1399,43 @@
         <v>2.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
         <v>14</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>10.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH7" t="n">
         <v>11.5</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1780,40 +1780,40 @@
         <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="N10" t="n">
         <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -1828,7 +1828,7 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -1837,10 +1837,10 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
         <v>9.5</v>
@@ -1855,13 +1855,13 @@
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -1901,91 +1901,91 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.88</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="N11" t="n">
         <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
         <v>4.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="n">
         <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -1997,19 +1997,19 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="12">
@@ -2044,67 +2044,67 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="N12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="O12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2128,31 +2128,31 @@
         <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="13">
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
         <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M13" t="n">
         <v>1.28</v>
@@ -2226,7 +2226,7 @@
         <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="U13" t="n">
         <v>1.65</v>
@@ -2235,13 +2235,13 @@
         <v>2.12</v>
       </c>
       <c r="W13" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>35</v>
@@ -2253,13 +2253,13 @@
         <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>6.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF13" t="n">
         <v>50</v>
@@ -2271,13 +2271,13 @@
         <v>8.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>19.5</v>
@@ -2289,7 +2289,7 @@
         <v>1.06</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -697,7 +697,7 @@
         <v>1.85</v>
       </c>
       <c r="L2" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M2" t="n">
         <v>1.38</v>
@@ -721,7 +721,7 @@
         <v>1.52</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U2" t="n">
         <v>1.78</v>
@@ -730,10 +730,10 @@
         <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
         <v>30</v>
@@ -763,7 +763,7 @@
         <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -772,13 +772,13 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="n">
         <v>45</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>40</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -817,28 +817,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="N3" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.98</v>
@@ -847,7 +847,7 @@
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -859,37 +859,37 @@
         <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
         <v>15.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF3" t="n">
         <v>90</v>
@@ -901,19 +901,19 @@
         <v>10.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -955,16 +955,16 @@
         <v>1.21</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L4" t="n">
         <v>9</v>
@@ -990,7 +990,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
         <v>1.57</v>
@@ -1005,7 +1005,7 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1014,13 +1014,13 @@
         <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
         <v>150</v>
@@ -1032,13 +1032,13 @@
         <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
         <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL4" t="n">
         <v>175</v>
@@ -1083,67 +1083,67 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>1.9</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
         <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="n">
         <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>25</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
@@ -1152,25 +1152,25 @@
         <v>6.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI5" t="n">
         <v>14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK5" t="n">
         <v>40</v>
@@ -1179,7 +1179,7 @@
         <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="n">
         <v>1.11</v>
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K6" t="n">
         <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.36</v>
@@ -1249,7 +1249,7 @@
         <v>2.05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1270,19 +1270,19 @@
         <v>1.78</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>35</v>
@@ -1303,22 +1303,22 @@
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1357,94 +1357,94 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="M7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P7" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10.75</v>
       </c>
-      <c r="AD7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
         <v>55</v>
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
         <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M9" t="n">
         <v>1.24</v>
@@ -1657,7 +1657,7 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R9" t="n">
         <v>1.36</v>
@@ -1675,22 +1675,22 @@
         <v>2.07</v>
       </c>
       <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9.75</v>
       </c>
-      <c r="X9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
         <v>27</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>11.5</v>
@@ -1711,19 +1711,19 @@
         <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.3</v>
@@ -1804,25 +1804,25 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -1831,34 +1831,34 @@
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AK10" t="n">
         <v>41</v>
       </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
         <v>1.06</v>
@@ -1901,22 +1901,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.5</v>
@@ -1943,22 +1943,22 @@
         <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -1979,16 +1979,16 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2047,10 +2047,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2149,10 +2149,10 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2187,40 +2187,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="H13" t="n">
         <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.07</v>
       </c>
       <c r="L13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3.05</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.95</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2229,58 +2229,58 @@
         <v>2.7</v>
       </c>
       <c r="U13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>6.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
@@ -2289,7 +2289,7 @@
         <v>1.06</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2326,22 +2326,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.22</v>
@@ -2374,19 +2374,19 @@
         <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
@@ -2398,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>45</v>
@@ -2407,16 +2407,16 @@
         <v>300</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>16.5</v>
@@ -2465,109 +2465,109 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="K15" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T15" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="U15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X15" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AE15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="n">
         <v>400</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2604,109 +2604,109 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N16" t="n">
         <v>2.35</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.37</v>
-      </c>
       <c r="O16" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S16" t="n">
         <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X16" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
         <v>9.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>40</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>11.75</v>
       </c>
       <c r="AK16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM16" t="n">
         <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -1804,10 +1804,10 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1804,10 +1804,10 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-21.xlsx
@@ -682,100 +682,100 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="K2" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="N2" t="n">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6.3</v>
       </c>
-      <c r="X2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI2" t="n">
         <v>30</v>
       </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
         <v>45</v>
@@ -1627,40 +1627,40 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L9" t="n">
         <v>2.62</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.42</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.65</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>1.38</v>
@@ -1669,61 +1669,61 @@
         <v>2.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V9" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>27</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AE9" t="n">
         <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH9" t="n">
         <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
